--- a/src/tabla_v1.xlsx
+++ b/src/tabla_v1.xlsx
@@ -17,13 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,67 +419,457 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="75" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CELSIA COLOMBIA S.A. E.S.P. infor</t>
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_G</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_T</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_D</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_PR</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_Cv</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_R</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_CUv</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TARIFA_CU Aplicada</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>vigentes, calculadas con base en l</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>350.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>279.57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>171.47</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>927.03</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>002(Compras de energía), 174/202</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>350.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>206.74</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>171.47</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>854.20</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>010/09(IPC), 058/08 y 133/13(Cargo</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>350.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>163.81</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>176.93</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>778.76</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>y 190/15, 079/16 y 229/16(Costo</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>350.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>134.81</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>666.34</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>199/19(Metodología cargos uso STR</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>350.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>253.04</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>190.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>948.85</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1-2) y Resoluciones UPME 0355/04</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>350.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>200.88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>190.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>896.69</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>COSTO UNIT</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>350.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>148.71</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>190.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>844.52</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>350.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>161.69</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100.73</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>713.48</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>350.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>114.02</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100.73</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>655.01</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://www.celsia.com/es/informacion-regulatoria-y-res-creg-080/tarifas/</t>
         </is>
       </c>
     </row>
